--- a/medicine/Enfance/Thérèse_Lenôtre/Thérèse_Lenôtre.xlsx
+++ b/medicine/Enfance/Thérèse_Lenôtre/Thérèse_Lenôtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Len%C3%B4tre</t>
+          <t>Thérèse_Lenôtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thérèse Lenotre, parfois orthographié à tort Lenôtre, par certains éditeurs, née Anne Léonie Marie Thérèse Gosselin le 20 juin 1894 à Avesnes-sur-Helpe et morte le 19 avril 1986 à Versailles[1], est une écrivaine de romans pour la jeunesse. Elle est également l'auteure de quelques romans sentimentaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thérèse Lenotre, parfois orthographié à tort Lenôtre, par certains éditeurs, née Anne Léonie Marie Thérèse Gosselin le 20 juin 1894 à Avesnes-sur-Helpe et morte le 19 avril 1986 à Versailles, est une écrivaine de romans pour la jeunesse. Elle est également l'auteure de quelques romans sentimentaux.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Len%C3%B4tre</t>
+          <t>Thérèse_Lenôtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille de l'académicien Théodore Gosselin dit G. Lenotre, historien et dramaturge français, elle adapte au théâtre des bandes dessinées d'Alain Saint-Ogan, plusieurs pièces avec Zig et Puce la première en 1927, et en 1935 Prosper , avec Adhémar de Montgon[2].
-Elle était l’épouse de l’homme de lettres Adhémar Cordeboeuf de Beauverger, marquis de Montgon (d)(1886-1942)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille de l'académicien Théodore Gosselin dit G. Lenotre, historien et dramaturge français, elle adapte au théâtre des bandes dessinées d'Alain Saint-Ogan, plusieurs pièces avec Zig et Puce la première en 1927, et en 1935 Prosper , avec Adhémar de Montgon.
+Elle était l’épouse de l’homme de lettres Adhémar Cordeboeuf de Beauverger, marquis de Montgon (d)(1886-1942).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Len%C3%B4tre</t>
+          <t>Thérèse_Lenôtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1928 : Le Trésor de Romilly, Paris, Hachette, Bibliothèque rose illustrée, 30 vignettes en noir et blanc par Henry Morin, roman pour la jeunesse, 254 p.
 Prix Sobrier-Arnould de l’Académie française 1929
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Len%C3%B4tre</t>
+          <t>Thérèse_Lenôtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,13 +617,15 @@
           <t>Adaptations théâtrales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1927 : Zig et Puce, comédie en 5 actes, Théâtre du Petit-Monde au Théâtre de la Madeleine
 1929 : Zig et Puce et le serpent de mer, comédie en 4 actes, Théâtre du Petit-Monde aux Folies-Wagram
-1930 : Le petit poucet, comédie musicale en cinq actes d'après Charles Perrault, Théâtre du Petit-Monde[4]
+1930 : Le petit poucet, comédie musicale en cinq actes d'après Charles Perrault, Théâtre du Petit-Monde
 1934 : Zig et Puce policiers, comédie en 6 tableaux, Théâtre du Petit-Monde au Théâtre de la Madeleine
-1935 : Prosper l'Ours, avec Adhémar de Montgon d'après Alain Saint-Ogan, Théâtre du Petit-Monde au Théâtre Sarah-Bernhardt[5]
+1935 : Prosper l'Ours, avec Adhémar de Montgon d'après Alain Saint-Ogan, Théâtre du Petit-Monde au Théâtre Sarah-Bernhardt
 1936 : Zig et Puce, comédie en 4 actes, Théâtre du Petit-Monde au Théâtre Sarah-Bernhardt
 1950 : Zig et Puce en Angleterre, comédie en 3 actes, Théâtre du Petit-Monde au Théâtre de la Gaîté-Lyrique et en 1951 au Théâtre de l'Ambigu</t>
         </is>
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9r%C3%A8se_Len%C3%B4tre</t>
+          <t>Thérèse_Lenôtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,12 +655,14 @@
           <t>Comédies radiophoniques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1927 : Bicot, président de club, comédie en 3 actes de Thérèse Lenotre et Pierre Humble. Publication : Marseille, Moullot fils aîné. In-12, 192 p.
 1936 : L'Arbre de Noël, fantaisie radiophonique de Thérèse Lenotre et Adhémar de Montgon. Première diffusion : (France) Radiodiffusion française, Paris-P.T.T., 1936.12.25.
 1937 : Le Nouveau Chaperon rouge, comédie en 2 actes de Thérèse Lenotre et Charles Louis Fauconnier (adaptateur). Adaptation radiophonique : C.-L. Fauconnier. Musique d'Adhémar de Montgon. Première diffusion : (France) Radiodiffusion française, Paris-P.T.T., 1937.02.11.
-1937 :  Les Nouvelles Aventures de Zig et Puce, comédie de Thérèse Lenotre, Paris-P.T.T., 1937.10.08[6].
+1937 :  Les Nouvelles Aventures de Zig et Puce, comédie de Thérèse Lenotre, Paris-P.T.T., 1937.10.08.
 1938 : Monsieur Tic vagabonde, comédie-féerie [radiophonique] / Thérèse Lenotre. Première diffusion : (France) Radiodiffusion française, 1938.00.00.
 1940 : La Leçon d'harmonie, sketch radiophonique. Radiodiffusion nationale : ca 1940-1944.</t>
         </is>
